--- a/output/fit_clients/fit_round_144.xlsx
+++ b/output/fit_clients/fit_round_144.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2430812981.373756</v>
+        <v>2365040529.583582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08483443758031016</v>
+        <v>0.0778252698717035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03451736017170829</v>
+        <v>0.03210396596343451</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1215406544.220169</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2079080656.717325</v>
+        <v>1791055119.395325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1227269125593225</v>
+        <v>0.1373216533445605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03525957854601101</v>
+        <v>0.04787722991763295</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1039540380.624045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3304225396.838789</v>
+        <v>5187409926.46347</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1019416537835157</v>
+        <v>0.1332206125167855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03615612525675035</v>
+        <v>0.03363402759578082</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1652112663.267811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3174531878.519989</v>
+        <v>3886159022.924494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09719269004615416</v>
+        <v>0.09893281557706526</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04475532691731592</v>
+        <v>0.04616813836568327</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>54</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1587265997.529871</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2877012293.685782</v>
+        <v>2326149233.699033</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1090356449843144</v>
+        <v>0.1143761983551552</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04635463332741318</v>
+        <v>0.04881367649848331</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1438506081.471203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2006002124.325612</v>
+        <v>3139067989.785508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06796941075292143</v>
+        <v>0.08246774290322767</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04670373483503272</v>
+        <v>0.03126185045332255</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1003001122.676765</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3208011613.451279</v>
+        <v>3435414083.764069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1690991904408045</v>
+        <v>0.1470495572049564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02708040743196401</v>
+        <v>0.02197614684002587</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1604005885.462573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1670843902.375582</v>
+        <v>1979055137.81041</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1403402800432839</v>
+        <v>0.1464528502056066</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03173534725041144</v>
+        <v>0.03715041291055159</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>835422023.4105587</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4913997049.928802</v>
+        <v>4530908829.204519</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1836283955963571</v>
+        <v>0.2081008851501967</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04861503212335998</v>
+        <v>0.044831638234846</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>61</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2456998617.578544</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3262547360.004666</v>
+        <v>3761246476.650675</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1840477008412453</v>
+        <v>0.1528555882480306</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04528855235500615</v>
+        <v>0.04713338921552648</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>60</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1631273641.19377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2098025438.540139</v>
+        <v>2773200951.210739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1476717342236995</v>
+        <v>0.1841288184422863</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03471286625990672</v>
+        <v>0.03881558191704348</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1049012654.662895</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3597011864.196887</v>
+        <v>3782686753.299398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0978632592972655</v>
+        <v>0.08454442928028209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02068941781964578</v>
+        <v>0.02743164116001042</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>48</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1798506007.460992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3193007809.679755</v>
+        <v>2915605529.551723</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1859110301884727</v>
+        <v>0.1857291724226047</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0291088573199497</v>
+        <v>0.03124373066109402</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1596503925.26804</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1144327340.918426</v>
+        <v>1441680097.440174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1094982417624512</v>
+        <v>0.07336356180115097</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03896594785301042</v>
+        <v>0.04228555499511234</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>572163675.282016</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2546146254.254898</v>
+        <v>2585206702.908011</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07743768892971174</v>
+        <v>0.1117706146762787</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04271970320973562</v>
+        <v>0.04276569500714767</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1273073153.776112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4875426332.724076</v>
+        <v>4686286733.604967</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1732170569184923</v>
+        <v>0.1141149525812457</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03661946356765226</v>
+        <v>0.04621226873892881</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2437713157.602777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3792467108.294169</v>
+        <v>3431884079.191656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1395280936205748</v>
+        <v>0.1735522972365347</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03229003772916855</v>
+        <v>0.02451709386310384</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>47</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1896233526.949739</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>873634103.1843891</v>
+        <v>1066356543.396081</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1870241541911573</v>
+        <v>0.1911081635151196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02741419796847896</v>
+        <v>0.02253628543639861</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>436817050.0198694</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2634177791.816515</v>
+        <v>2643033379.234457</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1502274294511313</v>
+        <v>0.1191734496854781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02150901243041087</v>
+        <v>0.02411529645155246</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1317088854.673842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1798737121.781457</v>
+        <v>2243399508.91343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0737287092801588</v>
+        <v>0.09065711431453639</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02879567231336435</v>
+        <v>0.04514098109456237</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>899368616.0147909</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3398824758.533465</v>
+        <v>3679795729.478993</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1144962011103172</v>
+        <v>0.107048696213885</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04547895405021458</v>
+        <v>0.04955786112527609</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1699412416.873352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>943388393.0493486</v>
+        <v>1150517768.074855</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1588675228411175</v>
+        <v>0.1200922933620474</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04012462701045072</v>
+        <v>0.04259766194115503</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>471694276.2112545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3410553301.27402</v>
+        <v>3175490678.5893</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1036075781470406</v>
+        <v>0.09347657129822559</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03464585772755968</v>
+        <v>0.02549272686658426</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1705276658.239146</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1363483240.8462</v>
+        <v>1154550468.471536</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1011222817447211</v>
+        <v>0.1204977222543025</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02847293363977169</v>
+        <v>0.0308480806459006</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>681741600.7390026</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1195379846.272851</v>
+        <v>1450965363.642885</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1066051609118828</v>
+        <v>0.0980793915696571</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02733974665076125</v>
+        <v>0.03072098755768893</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>597689942.9730425</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4067868758.016678</v>
+        <v>4286198681.835499</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1168945804175007</v>
+        <v>0.1362824964004963</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0218195260250187</v>
+        <v>0.02090624128717587</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2033934385.722589</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3357731734.994815</v>
+        <v>3395993139.750458</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1408684383315339</v>
+        <v>0.1230747643518624</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04678039721625486</v>
+        <v>0.03544124553294886</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>46</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1678865909.721943</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5806090193.933168</v>
+        <v>4042073629.927991</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09903877168078956</v>
+        <v>0.1020421029293762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03632866457360127</v>
+        <v>0.0349931121011335</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2903044988.607689</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2412197933.322255</v>
+        <v>1673899205.095068</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1043937692317038</v>
+        <v>0.1298068977346712</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02739927821811582</v>
+        <v>0.02994871773712086</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1206099051.019441</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1254200961.842788</v>
+        <v>1247065169.828271</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07127504637164234</v>
+        <v>0.1055439141710802</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05004505415329888</v>
+        <v>0.04766810046650882</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>627100419.5785983</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1281368215.250048</v>
+        <v>1258947200.281751</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08508541676126465</v>
+        <v>0.09588141394834544</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03594467926339268</v>
+        <v>0.03626654262249701</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>640684130.6295722</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2218037880.076159</v>
+        <v>2456585989.054671</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1799545373290924</v>
+        <v>0.1646472589358368</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05710375593910786</v>
+        <v>0.0535854972000886</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>44</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1109019002.219944</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1207010606.837127</v>
+        <v>1563367026.662605</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09790960362474245</v>
+        <v>0.1153919816085239</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02212258132501419</v>
+        <v>0.02152368579683071</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>603505307.3264108</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1000558490.45219</v>
+        <v>827405820.187928</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0736581920474618</v>
+        <v>0.08840001603399238</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03265020641947297</v>
+        <v>0.03500726165745893</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>500279263.6435111</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2830647523.634304</v>
+        <v>2730034702.421039</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1266457683132565</v>
+        <v>0.1120065734279095</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02053876639210552</v>
+        <v>0.02656985596371799</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1415323757.269222</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2885712614.179237</v>
+        <v>2562588239.726363</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08139850953903516</v>
+        <v>0.07418867556549029</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03360580922310472</v>
+        <v>0.02597043618463727</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>39</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1442856456.175947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1525014879.24902</v>
+        <v>1500513472.725965</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08537876438218403</v>
+        <v>0.1160574976773014</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02718967953896527</v>
+        <v>0.02939382166390118</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>762507485.3019066</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1667435431.788668</v>
+        <v>1416640337.324034</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1772146697193981</v>
+        <v>0.1665185906074999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02702050351611127</v>
+        <v>0.02958691146956666</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>833717760.8788702</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1644992208.594326</v>
+        <v>1489120973.914907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1102401883065434</v>
+        <v>0.1391018013805239</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04680219735891908</v>
+        <v>0.04552585355312048</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>822496034.1545365</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2044243721.91155</v>
+        <v>1901104330.752782</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1040610755789779</v>
+        <v>0.1369407888346101</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03840421829272475</v>
+        <v>0.04489174099809606</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>35</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1022121930.778058</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3141415278.7472</v>
+        <v>3671690552.357559</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1099144566468142</v>
+        <v>0.07966109985071673</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03661188983328113</v>
+        <v>0.04343373249320439</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>49</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1570707609.516522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2581833919.496874</v>
+        <v>2901907209.747383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1656219591864811</v>
+        <v>0.2024936201256581</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02128034427733561</v>
+        <v>0.01760464691926553</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>48</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1290917000.12091</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1496818750.06069</v>
+        <v>1830705568.210859</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06906126669194138</v>
+        <v>0.09673601030709165</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03402982098672112</v>
+        <v>0.03307782388503529</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>748409380.9282656</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1622081018.095932</v>
+        <v>2196989321.247895</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1752724855478016</v>
+        <v>0.1896832437290581</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03896218961845938</v>
+        <v>0.04726016224276095</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>811040461.781553</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5480665664.616382</v>
+        <v>4316854451.794602</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1317269156235726</v>
+        <v>0.1749557061863416</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04391203994669997</v>
+        <v>0.05900197682406399</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>51</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2740332886.60529</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3274026955.895782</v>
+        <v>3227111896.818256</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1917125143032224</v>
+        <v>0.2033284740983066</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05125235573036548</v>
+        <v>0.04351459591820957</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>39</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1637013435.89238</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4529368790.918198</v>
+        <v>3897439983.544451</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1005398087823059</v>
+        <v>0.09858796438048503</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0243465776327197</v>
+        <v>0.03283266443835178</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2264684399.012098</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1564325491.957185</v>
+        <v>1940078789.395419</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1874158115659261</v>
+        <v>0.1592311172384186</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03030367783171672</v>
+        <v>0.03864792150135494</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>782162767.9632674</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2747289985.885342</v>
+        <v>3739652864.687119</v>
       </c>
       <c r="F50" t="n">
-        <v>0.160955597261709</v>
+        <v>0.1686028477726768</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04627265522121331</v>
+        <v>0.05149144494365948</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>49</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1373645070.724</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>983726622.5710895</v>
+        <v>1230712028.775119</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1347733440197472</v>
+        <v>0.1188412224233115</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03741403631955649</v>
+        <v>0.05309448457740854</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>491863397.8433644</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3446267160.366802</v>
+        <v>3192337059.26137</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1159962451549415</v>
+        <v>0.1002333433696999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04339987626238827</v>
+        <v>0.04741905137503063</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>60</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1723133669.214038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3561143982.202901</v>
+        <v>2402019771.587643</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2021686196399428</v>
+        <v>0.1863310608460944</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02972299265711329</v>
+        <v>0.02663283146236698</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1780571984.774771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4232320054.897633</v>
+        <v>4905003487.039319</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1281840740000096</v>
+        <v>0.1588731854144129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04656766300160894</v>
+        <v>0.0513694942946052</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2116160109.730433</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4338837230.713151</v>
+        <v>3005034103.889666</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1783401558771494</v>
+        <v>0.2098323973545814</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02880210387288222</v>
+        <v>0.02834484439064345</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2169418605.169027</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1791975641.927821</v>
+        <v>1693106944.163255</v>
       </c>
       <c r="F56" t="n">
-        <v>0.102897037074116</v>
+        <v>0.127198314321606</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03918240614630112</v>
+        <v>0.041970341261261</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>895987819.8888224</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4396276602.671362</v>
+        <v>3419941998.817949</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1274574517146491</v>
+        <v>0.1832622759818566</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02388216119427023</v>
+        <v>0.01702913117136688</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>46</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2198138422.936236</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1627754926.371006</v>
+        <v>1270356044.454012</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1921029264604291</v>
+        <v>0.1696998860060494</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03125931041146023</v>
+        <v>0.02839215431800486</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>813877482.6335678</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5147398196.130431</v>
+        <v>4603644008.809441</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1266096778758155</v>
+        <v>0.1130547807009607</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04658097421626168</v>
+        <v>0.03379351672637113</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2573699018.64787</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2948823291.933518</v>
+        <v>2924883295.064395</v>
       </c>
       <c r="F60" t="n">
-        <v>0.168838978008816</v>
+        <v>0.1728934012751848</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03183795881150907</v>
+        <v>0.03217271797524324</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1474411710.897943</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3298840975.882774</v>
+        <v>3328723971.442678</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1431974307271543</v>
+        <v>0.1293972221663304</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02104363539567536</v>
+        <v>0.02541682264824072</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>51</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1649420440.187048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1306303286.8235</v>
+        <v>1990852666.379643</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1503947669951888</v>
+        <v>0.1703426106705327</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03419702635819764</v>
+        <v>0.0388700338758537</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>653151597.3802778</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4910713608.882736</v>
+        <v>3991044891.265357</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06536983623977681</v>
+        <v>0.08771528773032711</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03376089744082883</v>
+        <v>0.03356128463260209</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2455356826.148715</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5017201271.523334</v>
+        <v>4982584401.655838</v>
       </c>
       <c r="F64" t="n">
-        <v>0.166396658907114</v>
+        <v>0.1646942432794159</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02480149367682131</v>
+        <v>0.032035815828886</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>45</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2508600743.132497</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5236230516.486244</v>
+        <v>5437811547.998157</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1168971510083689</v>
+        <v>0.1213968142220437</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02030120280190316</v>
+        <v>0.02061482226616012</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>52</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2618115203.027901</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5661896493.170721</v>
+        <v>4104984009.226234</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1415506075637065</v>
+        <v>0.1455006945669927</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04717862583475627</v>
+        <v>0.03136006484730901</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>42</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2830948309.153315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2856325640.005381</v>
+        <v>3314936734.960825</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0669004245123313</v>
+        <v>0.06397786987485737</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03918121123582594</v>
+        <v>0.03848733514674706</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1428162850.357909</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5147021878.118878</v>
+        <v>5129858485.951877</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1502396863435815</v>
+        <v>0.1486254376671019</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03779617446346948</v>
+        <v>0.04913437546974989</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>46</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2573511004.30729</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1669279797.276927</v>
+        <v>2388296355.292143</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1328222623595967</v>
+        <v>0.1552431163779006</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04673332534615013</v>
+        <v>0.04973608522877863</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>834639860.7916255</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3492809635.797989</v>
+        <v>2699103794.665742</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07215136799984073</v>
+        <v>0.07568173609351177</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04555815173334233</v>
+        <v>0.03550459797862938</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>41</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1746404826.919351</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3963866925.5028</v>
+        <v>4855293656.976584</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1597762239649785</v>
+        <v>0.1709072014450174</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03325141497072969</v>
+        <v>0.0215916775770582</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>53</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1981933491.046281</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1798341726.67678</v>
+        <v>2225566031.177723</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0974697490304537</v>
+        <v>0.09788963886378929</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04329323795942705</v>
+        <v>0.04099223819796274</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>899170842.1776375</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3186274775.586753</v>
+        <v>2766327519.64745</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08402976911995215</v>
+        <v>0.1057111634562577</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04030459995587299</v>
+        <v>0.04818198086839259</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>55</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1593137366.685819</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3640700712.218591</v>
+        <v>3024956717.017557</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1813048831873042</v>
+        <v>0.1842339114512499</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03278247825553948</v>
+        <v>0.02797317165014762</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>49</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1820350366.07849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2385778162.086375</v>
+        <v>1866113924.950799</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1615576169209755</v>
+        <v>0.1430417003162213</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02897115101965031</v>
+        <v>0.02287888303172788</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1192889009.069515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5164001447.478481</v>
+        <v>4793881290.564775</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1045798814696213</v>
+        <v>0.1223687543928398</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02645104722211343</v>
+        <v>0.02901902742036569</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2582000757.22681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1766369929.832292</v>
+        <v>2055238416.827614</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1754099751345871</v>
+        <v>0.1520219880537033</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0262383169767553</v>
+        <v>0.02105317968985819</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>883184991.8743029</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3446595269.085317</v>
+        <v>3096840044.752359</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0966249157507257</v>
+        <v>0.1028334652622061</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05174441208897972</v>
+        <v>0.05703893632559225</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>51</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1723297639.856339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1191031181.511346</v>
+        <v>1625868762.342559</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1161509935063886</v>
+        <v>0.1704169707899333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02648459005422029</v>
+        <v>0.0357930234967692</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>595515570.8914611</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3563090477.007672</v>
+        <v>3393738376.574026</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0771547056051059</v>
+        <v>0.1016236976005117</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02920435824745325</v>
+        <v>0.03569906126611827</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1781545216.206195</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3385802627.584725</v>
+        <v>3349432785.316774</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1124573069354224</v>
+        <v>0.09668052546246118</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02941295216645097</v>
+        <v>0.0267167942343044</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1692901254.153094</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5394860883.175155</v>
+        <v>5134360066.886889</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2133617733067734</v>
+        <v>0.1443243230678511</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0268097418100453</v>
+        <v>0.02842745060380346</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2697430403.473964</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2464882203.472579</v>
+        <v>2102964421.837816</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1271177646629966</v>
+        <v>0.1350365014764555</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03655744446903516</v>
+        <v>0.03395915818325505</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1232441144.874879</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1767652131.70558</v>
+        <v>2019159082.032111</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1043277251308955</v>
+        <v>0.09435484328345103</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04506085222357908</v>
+        <v>0.03610242562708768</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>883826104.8327945</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3135457793.199911</v>
+        <v>2444826032.147896</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1290763602138881</v>
+        <v>0.1349004384913202</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05527080080656455</v>
+        <v>0.04516501074483343</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>55</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1567728971.657768</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2177932795.245032</v>
+        <v>1819908385.769859</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1241920986606333</v>
+        <v>0.1577579220042642</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01743061928276801</v>
+        <v>0.01721302239028623</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1088966449.928638</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1375553603.982337</v>
+        <v>1049880644.153728</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1278820015921115</v>
+        <v>0.1210005267858573</v>
       </c>
       <c r="G87" t="n">
-        <v>0.033153723242545</v>
+        <v>0.03333341295306726</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687776902.5273973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3540087882.691164</v>
+        <v>3353031703.635629</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1629092271626675</v>
+        <v>0.1566903559418265</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02985607272924107</v>
+        <v>0.03216275812990655</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>57</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1770044025.113103</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3150524594.495493</v>
+        <v>2669001547.257392</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1037300688663637</v>
+        <v>0.1150828446571971</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02780027563693523</v>
+        <v>0.02988919479751292</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>50</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1575262324.294222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1952464250.435996</v>
+        <v>1642724606.46575</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0961389540194557</v>
+        <v>0.09578380551660368</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0535986150755157</v>
+        <v>0.05402737518389872</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>976232186.7192075</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1664917642.605786</v>
+        <v>1823921243.253194</v>
       </c>
       <c r="F91" t="n">
-        <v>0.192578348479133</v>
+        <v>0.1276911803371598</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04991652074942257</v>
+        <v>0.05388696493416442</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>832458838.1948832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1831355851.383856</v>
+        <v>2580071404.389901</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08694430745860655</v>
+        <v>0.09945582040839877</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04443446313861971</v>
+        <v>0.03993311053758876</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>915677859.0810622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3760782430.665208</v>
+        <v>3375863381.990904</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1402865457645121</v>
+        <v>0.09990067616107197</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04851511436088071</v>
+        <v>0.03562941036563018</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1880391231.396156</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2155021203.012694</v>
+        <v>1582586074.659739</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1523041010094093</v>
+        <v>0.1479926504145237</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02807019546284124</v>
+        <v>0.02930207762410399</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1077510620.049881</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2732256454.654222</v>
+        <v>2102449193.882246</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1076469219513619</v>
+        <v>0.09400415723411129</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04155827424496944</v>
+        <v>0.05199305581420254</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>35</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1366128246.475295</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1911347476.972338</v>
+        <v>1592599652.817401</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1387580328632711</v>
+        <v>0.1084183923636184</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03121268656585608</v>
+        <v>0.0294013668228005</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>955673734.8771461</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3629500032.911819</v>
+        <v>5188576715.974154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1658350043351221</v>
+        <v>0.1740755262175722</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01938355896800295</v>
+        <v>0.02017528373030886</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1814750042.994989</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2880052070.625769</v>
+        <v>3132404597.756708</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08015144488320623</v>
+        <v>0.1101022913393234</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02252673550653632</v>
+        <v>0.02019467654516834</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>38</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1440026011.846989</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2667470652.651626</v>
+        <v>3360960263.286371</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1082151330930938</v>
+        <v>0.1023870269966835</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02621636620797274</v>
+        <v>0.03041534081118378</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>45</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1333735288.122759</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4357106490.086999</v>
+        <v>4770958319.087819</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1498065675833432</v>
+        <v>0.1603509576340208</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01852792323764181</v>
+        <v>0.02485228665771823</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>44</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2178553344.185286</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3338689694.340278</v>
+        <v>2692458476.587503</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2027033919797555</v>
+        <v>0.152789394461988</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05207603935235346</v>
+        <v>0.04333261532385435</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>59</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1669344980.931259</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_144.xlsx
+++ b/output/fit_clients/fit_round_144.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2365040529.583582</v>
+        <v>2183890836.119191</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0778252698717035</v>
+        <v>0.09875984636439473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03210396596343451</v>
+        <v>0.031363707299891</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1791055119.395325</v>
+        <v>2519391573.525132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1373216533445605</v>
+        <v>0.1623319379429878</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04787722991763295</v>
+        <v>0.04491214996313962</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5187409926.46347</v>
+        <v>4641695063.985912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1332206125167855</v>
+        <v>0.165569082212844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03363402759578082</v>
+        <v>0.02342036933581632</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3886159022.924494</v>
+        <v>3129894748.950202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09893281557706526</v>
+        <v>0.07710360843826816</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04616813836568327</v>
+        <v>0.04665030741233064</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2326149233.699033</v>
+        <v>2257875830.73266</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1143761983551552</v>
+        <v>0.1319982893017821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04881367649848331</v>
+        <v>0.03516031934080135</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3139067989.785508</v>
+        <v>2741409820.596277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08246774290322767</v>
+        <v>0.07769999281202947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03126185045332255</v>
+        <v>0.04252170221156272</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3435414083.764069</v>
+        <v>2457011628.597226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1470495572049564</v>
+        <v>0.1985643360636855</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02197614684002587</v>
+        <v>0.032039762029755</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1979055137.81041</v>
+        <v>1414186966.472857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1464528502056066</v>
+        <v>0.144520277847083</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03715041291055159</v>
+        <v>0.03054493158729855</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4530908829.204519</v>
+        <v>4914171338.536785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2081008851501967</v>
+        <v>0.1750216321223555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.044831638234846</v>
+        <v>0.04457117853482501</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3761246476.650675</v>
+        <v>3152860466.045051</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1528555882480306</v>
+        <v>0.1809783833563936</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04713338921552648</v>
+        <v>0.03380401429114404</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2773200951.210739</v>
+        <v>2734924763.637277</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1841288184422863</v>
+        <v>0.1695841207059374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03881558191704348</v>
+        <v>0.03757499871887419</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3782686753.299398</v>
+        <v>4172060514.141688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08454442928028209</v>
+        <v>0.07756783735587938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02743164116001042</v>
+        <v>0.02372424914681647</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2915605529.551723</v>
+        <v>3368641307.022526</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1857291724226047</v>
+        <v>0.1557413716203207</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03124373066109402</v>
+        <v>0.0374615861641813</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1441680097.440174</v>
+        <v>1297815640.105853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07336356180115097</v>
+        <v>0.08856629796429763</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04228555499511234</v>
+        <v>0.04269074450985606</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2585206702.908011</v>
+        <v>1878884166.426588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1117706146762787</v>
+        <v>0.08726579254347111</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04276569500714767</v>
+        <v>0.03222010211902429</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4686286733.604967</v>
+        <v>4062677250.409879</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1141149525812457</v>
+        <v>0.1519580860403566</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04621226873892881</v>
+        <v>0.04075845633304465</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3431884079.191656</v>
+        <v>2780532354.874034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1735522972365347</v>
+        <v>0.120515003288803</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02451709386310384</v>
+        <v>0.02373264025470673</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1066356543.396081</v>
+        <v>1139992030.423205</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1911081635151196</v>
+        <v>0.1518846439682651</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02253628543639861</v>
+        <v>0.01845419734696663</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2643033379.234457</v>
+        <v>2427478785.957602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1191734496854781</v>
+        <v>0.1577191713477659</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02411529645155246</v>
+        <v>0.02720544714449405</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2243399508.91343</v>
+        <v>2167223722.184578</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09065711431453639</v>
+        <v>0.1018975532692089</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04514098109456237</v>
+        <v>0.0327327992749628</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3679795729.478993</v>
+        <v>3625509808.933654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.107048696213885</v>
+        <v>0.09802956512287003</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04955786112527609</v>
+        <v>0.03963162057334949</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1150517768.074855</v>
+        <v>1549249033.469215</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1200922933620474</v>
+        <v>0.1526885302129292</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04259766194115503</v>
+        <v>0.0516278191299771</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3175490678.5893</v>
+        <v>2936726314.424684</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09347657129822559</v>
+        <v>0.1123805722878805</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02549272686658426</v>
+        <v>0.02724026260018162</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1154550468.471536</v>
+        <v>1262340351.11727</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1204977222543025</v>
+        <v>0.08508899611930723</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0308480806459006</v>
+        <v>0.02337397682058219</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1450965363.642885</v>
+        <v>1406287481.970046</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0980793915696571</v>
+        <v>0.1030462485115859</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03072098755768893</v>
+        <v>0.02962853478436516</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4286198681.835499</v>
+        <v>4260306422.857426</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1362824964004963</v>
+        <v>0.1472867494293217</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02090624128717587</v>
+        <v>0.02612576874847705</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3395993139.750458</v>
+        <v>2546646325.310907</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1230747643518624</v>
+        <v>0.1122955845137895</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03544124553294886</v>
+        <v>0.03842818933520935</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4042073629.927991</v>
+        <v>4246601725.235095</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1020421029293762</v>
+        <v>0.1392674367450916</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0349931121011335</v>
+        <v>0.02814396970999892</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1673899205.095068</v>
+        <v>1812330749.482069</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1298068977346712</v>
+        <v>0.1366526659353239</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02994871773712086</v>
+        <v>0.02688287909833986</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1247065169.828271</v>
+        <v>1313181990.679448</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1055439141710802</v>
+        <v>0.07028043297031489</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04766810046650882</v>
+        <v>0.03163992975085744</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1258947200.281751</v>
+        <v>1281911817.658566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09588141394834544</v>
+        <v>0.09574799522176755</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03626654262249701</v>
+        <v>0.03566419962263133</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2456585989.054671</v>
+        <v>2263763914.329645</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1646472589358368</v>
+        <v>0.1645376487286254</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0535854972000886</v>
+        <v>0.05362384129257398</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1563367026.662605</v>
+        <v>1289871154.14951</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1153919816085239</v>
+        <v>0.09999450254658876</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02152368579683071</v>
+        <v>0.01932394094252298</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>827405820.187928</v>
+        <v>986695236.5606227</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08840001603399238</v>
+        <v>0.07295996308990139</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03500726165745893</v>
+        <v>0.03338562825300803</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2730034702.421039</v>
+        <v>2841167998.290517</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1120065734279095</v>
+        <v>0.1322720012571796</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02656985596371799</v>
+        <v>0.02176172555056952</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2562588239.726363</v>
+        <v>1836897795.647022</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07418867556549029</v>
+        <v>0.09995828140246373</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02597043618463727</v>
+        <v>0.03249846333355693</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1500513472.725965</v>
+        <v>1457611900.212211</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1160574976773014</v>
+        <v>0.0748926701735055</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02939382166390118</v>
+        <v>0.02533384077353297</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1416640337.324034</v>
+        <v>1502512406.27514</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1665185906074999</v>
+        <v>0.175832050473055</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02958691146956666</v>
+        <v>0.02702087699259591</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1489120973.914907</v>
+        <v>1672249602.555845</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1391018013805239</v>
+        <v>0.1070661679718188</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04552585355312048</v>
+        <v>0.05198472683264661</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1901104330.752782</v>
+        <v>2554879504.736212</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1369407888346101</v>
+        <v>0.1015979701857996</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04489174099809606</v>
+        <v>0.03720515610032167</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3671690552.357559</v>
+        <v>4124093572.395852</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07966109985071673</v>
+        <v>0.1102243273103545</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04343373249320439</v>
+        <v>0.03079956635314784</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2901907209.747383</v>
+        <v>2192574535.241868</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2024936201256581</v>
+        <v>0.1463476023461248</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01760464691926553</v>
+        <v>0.02450439299842519</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1830705568.210859</v>
+        <v>1605362655.796584</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09673601030709165</v>
+        <v>0.06881710645582839</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03307782388503529</v>
+        <v>0.03359780024220135</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2196989321.247895</v>
+        <v>2435827836.151241</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1896832437290581</v>
+        <v>0.1724318859220183</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04726016224276095</v>
+        <v>0.05530560626264731</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4316854451.794602</v>
+        <v>5718302155.587236</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1749557061863416</v>
+        <v>0.177781751139634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05900197682406399</v>
+        <v>0.04283320453444731</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3227111896.818256</v>
+        <v>4510886112.127423</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2033284740983066</v>
+        <v>0.1360103455952587</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04351459591820957</v>
+        <v>0.04635027600014716</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3897439983.544451</v>
+        <v>3806731556.279636</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09858796438048503</v>
+        <v>0.0675420708300864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03283266443835178</v>
+        <v>0.03593232931897045</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1940078789.395419</v>
+        <v>1798801110.312107</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1592311172384186</v>
+        <v>0.1659275095394453</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03864792150135494</v>
+        <v>0.03104523191730737</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3739652864.687119</v>
+        <v>3308757455.584052</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1686028477726768</v>
+        <v>0.1342074146650671</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05149144494365948</v>
+        <v>0.03344921159695118</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1230712028.775119</v>
+        <v>1372057287.064874</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1188412224233115</v>
+        <v>0.126694574500161</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05309448457740854</v>
+        <v>0.04248268836824452</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3192337059.26137</v>
+        <v>3534619325.019654</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1002333433696999</v>
+        <v>0.1176125713563849</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04741905137503063</v>
+        <v>0.0452663512438096</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2402019771.587643</v>
+        <v>2752687662.531194</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1863310608460944</v>
+        <v>0.1822938106519975</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02663283146236698</v>
+        <v>0.03503267255040014</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4905003487.039319</v>
+        <v>4851536565.121328</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1588731854144129</v>
+        <v>0.1693943265162099</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0513694942946052</v>
+        <v>0.0523038211928482</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3005034103.889666</v>
+        <v>4309242813.418458</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2098323973545814</v>
+        <v>0.1531415904979448</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02834484439064345</v>
+        <v>0.02287692225427035</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1693106944.163255</v>
+        <v>1872162705.505808</v>
       </c>
       <c r="F56" t="n">
-        <v>0.127198314321606</v>
+        <v>0.124067879661059</v>
       </c>
       <c r="G56" t="n">
-        <v>0.041970341261261</v>
+        <v>0.04667019292065913</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3419941998.817949</v>
+        <v>3280772671.032846</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1832622759818566</v>
+        <v>0.1273469441417284</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01702913117136688</v>
+        <v>0.02535364055251856</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1270356044.454012</v>
+        <v>1567548291.389269</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1696998860060494</v>
+        <v>0.1547213856715065</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02839215431800486</v>
+        <v>0.02651786917596194</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4603644008.809441</v>
+        <v>4783808719.082924</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1130547807009607</v>
+        <v>0.1284486841248839</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03379351672637113</v>
+        <v>0.04097363991760746</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2924883295.064395</v>
+        <v>3245317744.550928</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1728934012751848</v>
+        <v>0.2064550222694024</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03217271797524324</v>
+        <v>0.02329036456129119</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3328723971.442678</v>
+        <v>2703773032.755011</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1293972221663304</v>
+        <v>0.1400365493429035</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02541682264824072</v>
+        <v>0.02620359390714569</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1990852666.379643</v>
+        <v>1801328986.387589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1703426106705327</v>
+        <v>0.1586767829962474</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0388700338758537</v>
+        <v>0.04469725106069149</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3991044891.265357</v>
+        <v>4314352026.235886</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08771528773032711</v>
+        <v>0.09809261878242272</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03356128463260209</v>
+        <v>0.03384170949911305</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4982584401.655838</v>
+        <v>5247310689.180299</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1646942432794159</v>
+        <v>0.1608030850984507</v>
       </c>
       <c r="G64" t="n">
-        <v>0.032035815828886</v>
+        <v>0.02661179420671581</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5437811547.998157</v>
+        <v>5611339818.35282</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1213968142220437</v>
+        <v>0.1460572378146406</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02061482226616012</v>
+        <v>0.02436660957221071</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4104984009.226234</v>
+        <v>4899097553.790604</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1455006945669927</v>
+        <v>0.1459259246973532</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03136006484730901</v>
+        <v>0.04658850756678219</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3314936734.960825</v>
+        <v>2691952982.89179</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06397786987485737</v>
+        <v>0.06390234788100306</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03848733514674706</v>
+        <v>0.04616220796461313</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5129858485.951877</v>
+        <v>5587450203.534036</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1486254376671019</v>
+        <v>0.1444048622257893</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04913437546974989</v>
+        <v>0.03128949625844257</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2388296355.292143</v>
+        <v>2155368898.671587</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1552431163779006</v>
+        <v>0.1339467838554215</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04973608522877863</v>
+        <v>0.0548938558373127</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2699103794.665742</v>
+        <v>2896117096.979716</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07568173609351177</v>
+        <v>0.1010987738281421</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03550459797862938</v>
+        <v>0.03121290684232564</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4855293656.976584</v>
+        <v>4722012904.220211</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1709072014450174</v>
+        <v>0.1670916635933545</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0215916775770582</v>
+        <v>0.02730743825339785</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2225566031.177723</v>
+        <v>1627821878.92853</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09788963886378929</v>
+        <v>0.06829532795575761</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04099223819796274</v>
+        <v>0.03945671581688214</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2766327519.64745</v>
+        <v>2919146097.69131</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1057111634562577</v>
+        <v>0.07806669782497182</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04818198086839259</v>
+        <v>0.03594361080832515</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3024956717.017557</v>
+        <v>3960241382.439429</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1842339114512499</v>
+        <v>0.1603096959222688</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02797317165014762</v>
+        <v>0.02698342244544825</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1866113924.950799</v>
+        <v>1970925198.387691</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1430417003162213</v>
+        <v>0.1490991432258778</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02287888303172788</v>
+        <v>0.02388898702697622</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4793881290.564775</v>
+        <v>3642629482.722034</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1223687543928398</v>
+        <v>0.1028713416501201</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02901902742036569</v>
+        <v>0.0221045102043612</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2055238416.827614</v>
+        <v>1997769305.466863</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1520219880537033</v>
+        <v>0.1687557725120309</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02105317968985819</v>
+        <v>0.01953840625617381</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3096840044.752359</v>
+        <v>3189420274.273827</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1028334652622061</v>
+        <v>0.1235496719693972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05703893632559225</v>
+        <v>0.05285436140444025</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1625868762.342559</v>
+        <v>1527530054.240744</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1704169707899333</v>
+        <v>0.1249803472513361</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0357930234967692</v>
+        <v>0.03377306172688051</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3393738376.574026</v>
+        <v>5198389395.949553</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016236976005117</v>
+        <v>0.1095744806631554</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03569906126611827</v>
+        <v>0.03649462387068009</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3349432785.316774</v>
+        <v>3737939544.711784</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09668052546246118</v>
+        <v>0.1279627970855735</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0267167942343044</v>
+        <v>0.02209532780260327</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5134360066.886889</v>
+        <v>4986450849.108385</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1443243230678511</v>
+        <v>0.171572362665726</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02842745060380346</v>
+        <v>0.02694530719982212</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2102964421.837816</v>
+        <v>1616522532.356041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1350365014764555</v>
+        <v>0.0994199046834861</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03395915818325505</v>
+        <v>0.04239018996314656</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2019159082.032111</v>
+        <v>2516718786.091364</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09435484328345103</v>
+        <v>0.1166791683281753</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03610242562708768</v>
+        <v>0.0436283924753312</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2444826032.147896</v>
+        <v>2470031281.745057</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1349004384913202</v>
+        <v>0.1278031722164412</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04516501074483343</v>
+        <v>0.04409520418738738</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1819908385.769859</v>
+        <v>1916031116.035941</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1577579220042642</v>
+        <v>0.1367791100650934</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01721302239028623</v>
+        <v>0.02701582016690111</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1049880644.153728</v>
+        <v>1083305747.27218</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1210005267858573</v>
+        <v>0.1244039146308013</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03333341295306726</v>
+        <v>0.04232893231540069</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3353031703.635629</v>
+        <v>2334180394.272359</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1566903559418265</v>
+        <v>0.1462600296228976</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03216275812990655</v>
+        <v>0.03363476052823992</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2669001547.257392</v>
+        <v>3497630955.350953</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1150828446571971</v>
+        <v>0.1078084251184051</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02988919479751292</v>
+        <v>0.02583223442710854</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1642724606.46575</v>
+        <v>1394582057.371928</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09578380551660368</v>
+        <v>0.1001657473417758</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05402737518389872</v>
+        <v>0.05560766143671558</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1823921243.253194</v>
+        <v>1903711761.931448</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1276911803371598</v>
+        <v>0.1831229937464461</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05388696493416442</v>
+        <v>0.05716394759832612</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2580071404.389901</v>
+        <v>2425821371.251135</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09945582040839877</v>
+        <v>0.08548039148671839</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03993311053758876</v>
+        <v>0.03567407192229602</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3375863381.990904</v>
+        <v>4840041701.194699</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09990067616107197</v>
+        <v>0.1075110281149973</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03562941036563018</v>
+        <v>0.04649860335145675</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1582586074.659739</v>
+        <v>2188664453.967298</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1479926504145237</v>
+        <v>0.1161439683086546</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02930207762410399</v>
+        <v>0.02921256199331486</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2102449193.882246</v>
+        <v>2728279123.601918</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09400415723411129</v>
+        <v>0.1367859763530314</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05199305581420254</v>
+        <v>0.04851806341038591</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1592599652.817401</v>
+        <v>2347974544.713966</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1084183923636184</v>
+        <v>0.1281139151595267</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0294013668228005</v>
+        <v>0.03419312851390086</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5188576715.974154</v>
+        <v>4329734378.451954</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1740755262175722</v>
+        <v>0.1071716514751427</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02017528373030886</v>
+        <v>0.02758323834156542</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3132404597.756708</v>
+        <v>3597826485.836002</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1101022913393234</v>
+        <v>0.1023023709696046</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02019467654516834</v>
+        <v>0.0257427077374398</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3360960263.286371</v>
+        <v>2368265542.974185</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1023870269966835</v>
+        <v>0.09472660772028586</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03041534081118378</v>
+        <v>0.02618958330984996</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4770958319.087819</v>
+        <v>3404250013.054177</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1603509576340208</v>
+        <v>0.1800673496752604</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02485228665771823</v>
+        <v>0.02386522179984221</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2692458476.587503</v>
+        <v>2691764417.415723</v>
       </c>
       <c r="F101" t="n">
-        <v>0.152789394461988</v>
+        <v>0.1502539227864364</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04333261532385435</v>
+        <v>0.03917565235483302</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_144.xlsx
+++ b/output/fit_clients/fit_round_144.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2183890836.119191</v>
+        <v>1554092466.166373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09875984636439473</v>
+        <v>0.0865255059277117</v>
       </c>
       <c r="G2" t="n">
-        <v>0.031363707299891</v>
+        <v>0.03704173199667912</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2519391573.525132</v>
+        <v>2389024658.576339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1623319379429878</v>
+        <v>0.1146841111825245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04491214996313962</v>
+        <v>0.04496463846014002</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4641695063.985912</v>
+        <v>5147457298.701741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.165569082212844</v>
+        <v>0.1112850561878379</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02342036933581632</v>
+        <v>0.0247998901260183</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>82</v>
+      </c>
+      <c r="J4" t="n">
+        <v>144</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3129894748.950202</v>
+        <v>3055349785.841227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07710360843826816</v>
+        <v>0.08729234326695626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04665030741233064</v>
+        <v>0.04629551211316604</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
+        <v>141</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2257875830.73266</v>
+        <v>2282018917.067365</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1319982893017821</v>
+        <v>0.09183434421309497</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03516031934080135</v>
+        <v>0.04988735262439763</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2741409820.596277</v>
+        <v>2717034346.126155</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07769999281202947</v>
+        <v>0.06145621024115156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04252170221156272</v>
+        <v>0.04726706587631953</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2457011628.597226</v>
+        <v>3848466588.391076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1985643360636855</v>
+        <v>0.1621922898403919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.032039762029755</v>
+        <v>0.02995079793012329</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1414186966.472857</v>
+        <v>2084948277.36694</v>
       </c>
       <c r="F9" t="n">
-        <v>0.144520277847083</v>
+        <v>0.1840002659413708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03054493158729855</v>
+        <v>0.02392890244908389</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4914171338.536785</v>
+        <v>5315678684.023887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1750216321223555</v>
+        <v>0.2054857103950438</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04457117853482501</v>
+        <v>0.05286311677250418</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>132</v>
+      </c>
+      <c r="J10" t="n">
+        <v>144</v>
+      </c>
+      <c r="K10" t="n">
+        <v>154.8440373805988</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3152860466.045051</v>
+        <v>3070834543.583408</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1809783833563936</v>
+        <v>0.1245022321830233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03380401429114404</v>
+        <v>0.04329565701536201</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>142</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2734924763.637277</v>
+        <v>3279202621.790681</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1695841207059374</v>
+        <v>0.198820447574836</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03757499871887419</v>
+        <v>0.05104031740234004</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4172060514.141688</v>
+        <v>3976639139.743827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07756783735587938</v>
+        <v>0.09625334159564818</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02372424914681647</v>
+        <v>0.02890751961699905</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70</v>
+      </c>
+      <c r="J13" t="n">
+        <v>143</v>
+      </c>
+      <c r="K13" t="n">
+        <v>139.3666673150829</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3368641307.022526</v>
+        <v>2944776019.503651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1557413716203207</v>
+        <v>0.1650627814157241</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0374615861641813</v>
+        <v>0.03204288323181356</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1297815640.105853</v>
+        <v>1691736036.878356</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08856629796429763</v>
+        <v>0.1025708840013669</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04269074450985606</v>
+        <v>0.0404400239258353</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1878884166.426588</v>
+        <v>2780438258.848024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08726579254347111</v>
+        <v>0.1085591392689397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03222010211902429</v>
+        <v>0.04138002644972977</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4062677250.409879</v>
+        <v>3772966858.147389</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1519580860403566</v>
+        <v>0.1582205211172563</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04075845633304465</v>
+        <v>0.04672607004722091</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>69</v>
+      </c>
+      <c r="J17" t="n">
+        <v>144</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2780532354.874034</v>
+        <v>2997753190.256264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.120515003288803</v>
+        <v>0.1498217153697598</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02373264025470673</v>
+        <v>0.02401143809326297</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="n">
+        <v>78.09354536157331</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1139992030.423205</v>
+        <v>1101370517.732821</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1518846439682651</v>
+        <v>0.1469571775255541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01845419734696663</v>
+        <v>0.02474172229799133</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2427478785.957602</v>
+        <v>2192695241.433001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1577191713477659</v>
+        <v>0.1208463838626752</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02720544714449405</v>
+        <v>0.02156801721447492</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2167223722.184578</v>
+        <v>2657681512.695666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1018975532692089</v>
+        <v>0.0662246169554979</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0327327992749628</v>
+        <v>0.04363014244743451</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3625509808.933654</v>
+        <v>3198664265.962052</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09802956512287003</v>
+        <v>0.1103645715183991</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03963162057334949</v>
+        <v>0.04395063738179724</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>37</v>
+      </c>
+      <c r="J22" t="n">
+        <v>142</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1549249033.469215</v>
+        <v>1248790708.204572</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1526885302129292</v>
+        <v>0.1233052823775061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0516278191299771</v>
+        <v>0.03582872801212177</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2936726314.424684</v>
+        <v>2929666971.717694</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1123805722878805</v>
+        <v>0.1467441129585341</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02724026260018162</v>
+        <v>0.03114949367511334</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>142</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1262340351.11727</v>
+        <v>1096010179.773805</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08508899611930723</v>
+        <v>0.1045367287323652</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02337397682058219</v>
+        <v>0.02785605438363431</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1406287481.970046</v>
+        <v>1425741710.337903</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1030462485115859</v>
+        <v>0.1113477059162247</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02962853478436516</v>
+        <v>0.02965118405773894</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4260306422.857426</v>
+        <v>3116682829.19113</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1472867494293217</v>
+        <v>0.147082674366374</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02612576874847705</v>
+        <v>0.02687567105034509</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>57</v>
+      </c>
+      <c r="J27" t="n">
+        <v>143</v>
+      </c>
+      <c r="K27" t="n">
+        <v>72.73127722359926</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2546646325.310907</v>
+        <v>2612539110.454852</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1122955845137895</v>
+        <v>0.09639516817294497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03842818933520935</v>
+        <v>0.04811876598838098</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4246601725.235095</v>
+        <v>4510337361.318818</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1392674367450916</v>
+        <v>0.1316565149222993</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02814396970999892</v>
+        <v>0.04552632259358208</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>133</v>
+      </c>
+      <c r="J29" t="n">
+        <v>144</v>
+      </c>
+      <c r="K29" t="n">
+        <v>165.0442420839793</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1812330749.482069</v>
+        <v>2065377489.974959</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1366526659353239</v>
+        <v>0.1266847571485082</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02688287909833986</v>
+        <v>0.03462812960124709</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1313181990.679448</v>
+        <v>1472618893.952726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07028043297031489</v>
+        <v>0.0936763133487291</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03163992975085744</v>
+        <v>0.05191358074007958</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1281911817.658566</v>
+        <v>1497488382.697004</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09574799522176755</v>
+        <v>0.098685250416848</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03566419962263133</v>
+        <v>0.02885935612496765</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2263763914.329645</v>
+        <v>2152222193.361334</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1645376487286254</v>
+        <v>0.1835290295659492</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05362384129257398</v>
+        <v>0.05771214369411926</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1289871154.14951</v>
+        <v>1226542892.244163</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09999450254658876</v>
+        <v>0.1178518754956691</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01932394094252298</v>
+        <v>0.01843927193649828</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>986695236.5606227</v>
+        <v>846241354.3856422</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07295996308990139</v>
+        <v>0.1150068480609597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03338562825300803</v>
+        <v>0.03526112671906207</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2841167998.290517</v>
+        <v>3204827125.138219</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1322720012571796</v>
+        <v>0.1417189183941664</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02176172555056952</v>
+        <v>0.01992722303307528</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1836897795.647022</v>
+        <v>2689901908.885357</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09995828140246373</v>
+        <v>0.1057017111836122</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03249846333355693</v>
+        <v>0.0308122950530583</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1457611900.212211</v>
+        <v>1440372596.439827</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0748926701735055</v>
+        <v>0.1005280451723003</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02533384077353297</v>
+        <v>0.03844506261421406</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1502512406.27514</v>
+        <v>2007981017.148481</v>
       </c>
       <c r="F39" t="n">
-        <v>0.175832050473055</v>
+        <v>0.1943279290741096</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02702087699259591</v>
+        <v>0.03205779773320171</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1672249602.555845</v>
+        <v>1525839575.898661</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070661679718188</v>
+        <v>0.1034044574089863</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05198472683264661</v>
+        <v>0.04763621439935926</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2554879504.736212</v>
+        <v>2238704926.908028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1015979701857996</v>
+        <v>0.165324057418392</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03720515610032167</v>
+        <v>0.03322412896800141</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4124093572.395852</v>
+        <v>3029662285.028989</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1102243273103545</v>
+        <v>0.07758822986848332</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03079956635314784</v>
+        <v>0.03719095349233777</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>53</v>
+      </c>
+      <c r="J42" t="n">
+        <v>142</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2192574535.241868</v>
+        <v>1925436113.58316</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1463476023461248</v>
+        <v>0.1255108274078002</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02450439299842519</v>
+        <v>0.02294125485486066</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1605362655.796584</v>
+        <v>1522396725.227687</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06881710645582839</v>
+        <v>0.08792814769888085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03359780024220135</v>
+        <v>0.03244659649359016</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2435827836.151241</v>
+        <v>2048378946.353172</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1724318859220183</v>
+        <v>0.1368698104237793</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05530560626264731</v>
+        <v>0.05146256313032478</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5718302155.587236</v>
+        <v>4996689856.91822</v>
       </c>
       <c r="F46" t="n">
-        <v>0.177781751139634</v>
+        <v>0.1233910417592762</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04283320453444731</v>
+        <v>0.0557263730197006</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>81</v>
+      </c>
+      <c r="J46" t="n">
+        <v>144</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4510886112.127423</v>
+        <v>4416575813.049852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1360103455952587</v>
+        <v>0.1827580234169599</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04635027600014716</v>
+        <v>0.04080131249569859</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>64</v>
+      </c>
+      <c r="J47" t="n">
+        <v>143</v>
+      </c>
+      <c r="K47" t="n">
+        <v>117.1904567720093</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3806731556.279636</v>
+        <v>3394478995.505398</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0675420708300864</v>
+        <v>0.06817882561109538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03593232931897045</v>
+        <v>0.03003654434719161</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>60</v>
+      </c>
+      <c r="J48" t="n">
+        <v>144</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1798801110.312107</v>
+        <v>1982073198.374155</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1659275095394453</v>
+        <v>0.1750825402117936</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03104523191730737</v>
+        <v>0.03210830747808319</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3308757455.584052</v>
+        <v>2689152857.820506</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1342074146650671</v>
+        <v>0.173874629943036</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03344921159695118</v>
+        <v>0.0327710017936491</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1372057287.064874</v>
+        <v>1009435864.786436</v>
       </c>
       <c r="F51" t="n">
-        <v>0.126694574500161</v>
+        <v>0.1915186089866243</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04248268836824452</v>
+        <v>0.04325452211712771</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3534619325.019654</v>
+        <v>3620369359.588155</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1176125713563849</v>
+        <v>0.08834047849872542</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0452663512438096</v>
+        <v>0.04633547076261279</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>108</v>
+      </c>
+      <c r="J52" t="n">
+        <v>143</v>
+      </c>
+      <c r="K52" t="n">
+        <v>117.3590614076986</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2752687662.531194</v>
+        <v>3754448353.22616</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1822938106519975</v>
+        <v>0.1303450271331155</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03503267255040014</v>
+        <v>0.02961564372862029</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>144</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4851536565.121328</v>
+        <v>4949040820.343588</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1693943265162099</v>
+        <v>0.1346476527723284</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0523038211928482</v>
+        <v>0.04526851102611692</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>67</v>
+      </c>
+      <c r="J54" t="n">
+        <v>144</v>
+      </c>
+      <c r="K54" t="n">
+        <v>144.185676476365</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4309242813.418458</v>
+        <v>4898106423.457034</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1531415904979448</v>
+        <v>0.1402407484256058</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02287692225427035</v>
+        <v>0.02856958173049792</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>66</v>
+      </c>
+      <c r="J55" t="n">
+        <v>144</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1872162705.505808</v>
+        <v>1632558945.346714</v>
       </c>
       <c r="F56" t="n">
-        <v>0.124067879661059</v>
+        <v>0.1514596858706888</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04667019292065913</v>
+        <v>0.05009970203990131</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3280772671.032846</v>
+        <v>3719475021.681241</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1273469441417284</v>
+        <v>0.1782226917917821</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02535364055251856</v>
+        <v>0.02211730102332267</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>58</v>
+      </c>
+      <c r="J57" t="n">
+        <v>143</v>
+      </c>
+      <c r="K57" t="n">
+        <v>119.0757174584622</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1567548291.389269</v>
+        <v>1482464428.592402</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1547213856715065</v>
+        <v>0.1352245824991953</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02651786917596194</v>
+        <v>0.03283142451360178</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4783808719.082924</v>
+        <v>3413701624.482491</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284486841248839</v>
+        <v>0.08206399206930665</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04097363991760746</v>
+        <v>0.03112730910976667</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>70</v>
+      </c>
+      <c r="J59" t="n">
+        <v>143</v>
+      </c>
+      <c r="K59" t="n">
+        <v>97.50326404133388</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3245317744.550928</v>
+        <v>2571762234.607271</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064550222694024</v>
+        <v>0.1900610645864815</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02329036456129119</v>
+        <v>0.02016847311613152</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2703773032.755011</v>
+        <v>2865240010.852376</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1400365493429035</v>
+        <v>0.1527178781718943</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02620359390714569</v>
+        <v>0.02491463258794412</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1801328986.387589</v>
+        <v>1818665874.765058</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1586767829962474</v>
+        <v>0.1919850772999776</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04469725106069149</v>
+        <v>0.0327565807798119</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4314352026.235886</v>
+        <v>5565467416.564549</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09809261878242272</v>
+        <v>0.1040426620317431</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03384170949911305</v>
+        <v>0.04088413521795034</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>70</v>
+      </c>
+      <c r="J63" t="n">
+        <v>144</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5247310689.180299</v>
+        <v>4923855838.370479</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1608030850984507</v>
+        <v>0.1371494898065213</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02661179420671581</v>
+        <v>0.02985283621603286</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>71</v>
+      </c>
+      <c r="J64" t="n">
+        <v>144</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5611339818.35282</v>
+        <v>4689515328.178134</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1460572378146406</v>
+        <v>0.1659637411339377</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02436660957221071</v>
+        <v>0.02261298746427954</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>120</v>
+      </c>
+      <c r="J65" t="n">
+        <v>144</v>
+      </c>
+      <c r="K65" t="n">
+        <v>145.0146363027328</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4899097553.790604</v>
+        <v>4940983327.551556</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1459259246973532</v>
+        <v>0.1043845418742331</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04658850756678219</v>
+        <v>0.03348572659252786</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>71</v>
+      </c>
+      <c r="J66" t="n">
+        <v>143</v>
+      </c>
+      <c r="K66" t="n">
+        <v>130.0533964252583</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2691952982.89179</v>
+        <v>2575589506.168958</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06390234788100306</v>
+        <v>0.06630742422559645</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04616220796461313</v>
+        <v>0.03817450039876622</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5587450203.534036</v>
+        <v>5927487364.636237</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1444048622257893</v>
+        <v>0.1420591626963001</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03128949625844257</v>
+        <v>0.04380955939785194</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>72</v>
+      </c>
+      <c r="J68" t="n">
+        <v>144</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2155368898.671587</v>
+        <v>1766673978.853276</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1339467838554215</v>
+        <v>0.1143862935273216</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0548938558373127</v>
+        <v>0.05481580602001499</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2896117096.979716</v>
+        <v>3213067937.166656</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1010987738281421</v>
+        <v>0.08857948907252908</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03121290684232564</v>
+        <v>0.03068831473898677</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>144</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4722012904.220211</v>
+        <v>4812350728.171007</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1670916635933545</v>
+        <v>0.1803420835560419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02730743825339785</v>
+        <v>0.02818400921077162</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>115</v>
+      </c>
+      <c r="J71" t="n">
+        <v>143</v>
+      </c>
+      <c r="K71" t="n">
+        <v>143.3179690000581</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1627821878.92853</v>
+        <v>2094832233.423603</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06829532795575761</v>
+        <v>0.06770097770123448</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03945671581688214</v>
+        <v>0.05206550400524488</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2919146097.69131</v>
+        <v>2681128312.365427</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07806669782497182</v>
+        <v>0.0872891904298065</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03594361080832515</v>
+        <v>0.04620557378937652</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3960241382.439429</v>
+        <v>2565478941.185223</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1603096959222688</v>
+        <v>0.1649766883284555</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02698342244544825</v>
+        <v>0.03528289306324242</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1970925198.387691</v>
+        <v>2271225646.059264</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1490991432258778</v>
+        <v>0.1122039517431053</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02388898702697622</v>
+        <v>0.03215718418446141</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3642629482.722034</v>
+        <v>4891770072.454763</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028713416501201</v>
+        <v>0.09130461221167757</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0221045102043612</v>
+        <v>0.02531744391583437</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>66</v>
+      </c>
+      <c r="J76" t="n">
+        <v>143</v>
+      </c>
+      <c r="K76" t="n">
+        <v>116.2211712566563</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1997769305.466863</v>
+        <v>2155746097.166647</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1687557725120309</v>
+        <v>0.1561895305923862</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01953840625617381</v>
+        <v>0.02097537950185726</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3189420274.273827</v>
+        <v>4253969691.619725</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1235496719693972</v>
+        <v>0.1270051158185586</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05285436140444025</v>
+        <v>0.04032882652537562</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>70</v>
+      </c>
+      <c r="J78" t="n">
+        <v>144</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1527530054.240744</v>
+        <v>1705463889.667886</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1249803472513361</v>
+        <v>0.1713309508165493</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03377306172688051</v>
+        <v>0.03168536039585255</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5198389395.949553</v>
+        <v>4654611417.55152</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1095744806631554</v>
+        <v>0.07166426908371763</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03649462387068009</v>
+        <v>0.02551471538802107</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>70</v>
+      </c>
+      <c r="J80" t="n">
+        <v>143</v>
+      </c>
+      <c r="K80" t="n">
+        <v>105.9651769032563</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3737939544.711784</v>
+        <v>4771185439.735111</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1279627970855735</v>
+        <v>0.1029325123429648</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02209532780260327</v>
+        <v>0.02038582143760034</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>66</v>
+      </c>
+      <c r="J81" t="n">
+        <v>143</v>
+      </c>
+      <c r="K81" t="n">
+        <v>121.8770130265613</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4986450849.108385</v>
+        <v>3979385149.599351</v>
       </c>
       <c r="F82" t="n">
-        <v>0.171572362665726</v>
+        <v>0.162146797414985</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02694530719982212</v>
+        <v>0.0183153306206519</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>103</v>
+      </c>
+      <c r="J82" t="n">
+        <v>144</v>
+      </c>
+      <c r="K82" t="n">
+        <v>151.2766227467089</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1616522532.356041</v>
+        <v>2444019861.521354</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0994199046834861</v>
+        <v>0.1248791867310261</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04239018996314656</v>
+        <v>0.04495275463148707</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2516718786.091364</v>
+        <v>2406571861.547866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1166791683281753</v>
+        <v>0.08430003727730905</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0436283924753312</v>
+        <v>0.04726148604926619</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2470031281.745057</v>
+        <v>2975708040.262454</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1278031722164412</v>
+        <v>0.1115461326107716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04409520418738738</v>
+        <v>0.04034568023741082</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="n">
+        <v>84.69520495977517</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1916031116.035941</v>
+        <v>2546602533.01496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1367791100650934</v>
+        <v>0.1150034476943353</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02701582016690111</v>
+        <v>0.02187199405699004</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083305747.27218</v>
+        <v>994814249.5701952</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1244039146308013</v>
+        <v>0.1783650052188749</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04232893231540069</v>
+        <v>0.030123264130988</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2334180394.272359</v>
+        <v>2563221451.105854</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1462600296228976</v>
+        <v>0.1547785005169631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03363476052823992</v>
+        <v>0.03248708030177092</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3497630955.350953</v>
+        <v>3040705261.307095</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1078084251184051</v>
+        <v>0.1044942758708736</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02583223442710854</v>
+        <v>0.03552705596338121</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1394582057.371928</v>
+        <v>2135959777.107837</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1001657473417758</v>
+        <v>0.1306824043757286</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05560766143671558</v>
+        <v>0.03392071141871741</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1903711761.931448</v>
+        <v>1564200313.807415</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1831229937464461</v>
+        <v>0.1277969762411698</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05716394759832612</v>
+        <v>0.04279926857656112</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2425821371.251135</v>
+        <v>2136763129.144481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08548039148671839</v>
+        <v>0.1024178868705944</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03567407192229602</v>
+        <v>0.03490183701978184</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4840041701.194699</v>
+        <v>3252429212.853933</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1075110281149973</v>
+        <v>0.1068175321602557</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04649860335145675</v>
+        <v>0.05279574787240614</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>65</v>
+      </c>
+      <c r="J93" t="n">
+        <v>143</v>
+      </c>
+      <c r="K93" t="n">
+        <v>88.21126592681925</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2188664453.967298</v>
+        <v>2523531669.395298</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1161439683086546</v>
+        <v>0.1141932164735351</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02921256199331486</v>
+        <v>0.03579284131770261</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2728279123.601918</v>
+        <v>2303114554.842683</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1367859763530314</v>
+        <v>0.09123239431595848</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04851806341038591</v>
+        <v>0.03997453657707989</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2347974544.713966</v>
+        <v>2188477003.5837</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1281139151595267</v>
+        <v>0.1320466162189606</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03419312851390086</v>
+        <v>0.03124217271346027</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4329734378.451954</v>
+        <v>3586369399.194513</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1071716514751427</v>
+        <v>0.1282004151173547</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02758323834156542</v>
+        <v>0.02862874836151152</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>69</v>
+      </c>
+      <c r="J97" t="n">
+        <v>143</v>
+      </c>
+      <c r="K97" t="n">
+        <v>112.7162243884796</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3597826485.836002</v>
+        <v>3167611707.839997</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1023023709696046</v>
+        <v>0.07850560195628586</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0257427077374398</v>
+        <v>0.02349103764339973</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2368265542.974185</v>
+        <v>2225234135.984485</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09472660772028586</v>
+        <v>0.1410209796062396</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02618958330984996</v>
+        <v>0.02825996699226554</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3404250013.054177</v>
+        <v>3230248592.769118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1800673496752604</v>
+        <v>0.1451977399101541</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02386522179984221</v>
+        <v>0.02093528572565219</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>59</v>
+      </c>
+      <c r="J100" t="n">
+        <v>144</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2691764417.415723</v>
+        <v>2967398447.626228</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1502539227864364</v>
+        <v>0.2186060116415134</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03917565235483302</v>
+        <v>0.04007372190129565</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>141</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
